--- a/src/test/resources/Seleniumreport.xlsx
+++ b/src/test/resources/Seleniumreport.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\AstrocodeAtomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBFCD30-8BDB-4425-99EE-66070A096C48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C53C0B-E25C-4208-9966-D905782C3095}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{9750853E-9995-48EA-9E30-C86A21BE9BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="shiromani" sheetId="2" r:id="rId2"/>
+    <sheet name="Ashtromani" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">shiromani!$A$1:$A$990</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ashtromani!$A$1:$A$894</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="220">
   <si>
     <t>sawdia@rediffmail.com</t>
   </si>
@@ -688,7 +689,7 @@
     <t>ruchira.aol@gmail.com</t>
   </si>
   <si>
-    <t>balmukund.sahu@rechargestudio.com</t>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -739,10 +740,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2174,10 +2178,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A050BFC-0DB2-4699-BEBA-9C869C24D7E9}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2186,22 +2190,700 @@
     <col min="5" max="5" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>219</v>
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A990" xr:uid="{663A2C00-09D2-4306-B8D2-B1A1C84F6ABC}"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{2FE59937-0341-4198-89CE-D223EB1BDAA3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D37359-CAE3-4002-82E7-4FEE6FDBB9E7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Seleniumreport.xlsx
+++ b/src/test/resources/Seleniumreport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\AstrocodeAtomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C53C0B-E25C-4208-9966-D905782C3095}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2FB719-FAC7-48AE-97D6-B1BE983E10AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{9750853E-9995-48EA-9E30-C86A21BE9BF5}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ashtromani!$A$1:$A$894</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ashtromani!$A$1:$A$763</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="220">
   <si>
     <t>sawdia@rediffmail.com</t>
   </si>
@@ -689,7 +689,7 @@
     <t>ruchira.aol@gmail.com</t>
   </si>
   <si>
-    <t>Email</t>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -740,13 +740,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2178,10 +2175,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A050BFC-0DB2-4699-BEBA-9C869C24D7E9}">
-  <dimension ref="A1:A136"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,684 +2187,14 @@
     <col min="5" max="5" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
